--- a/data/materiales.xlsx
+++ b/data/materiales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/Enex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F26729CF-2845-42D7-9B43-E98A012AAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F26729CF-2845-42D7-9B43-E98A012AAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2653916-DD8E-4ACA-82D9-85768F0E36E7}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00CDEBB4-C9D5-4CAE-A35E-8A2E8F730ACF}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00CDEBB4-C9D5-4CAE-A35E-8A2E8F730ACF}"/>
   </bookViews>
   <sheets>
     <sheet name="kits" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.5</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
